--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2347860997975491</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1366458247279665</v>
+        <v>0.1366458247279664</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0.2037368532229079</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09610789803179308</v>
+        <v>0.09610789803179309</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2902327937739935</v>
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2040833097808644</v>
+        <v>0.2064956161887817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02552281498355107</v>
+        <v>0.02827340921216931</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05931851059685064</v>
+        <v>0.05701115082662862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03575796512082993</v>
+        <v>0.03334111726940785</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07294101574491721</v>
+        <v>0.09254921898571011</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03319933045292597</v>
+        <v>0.0325574750246002</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1079864739899324</v>
+        <v>0.1142589438664048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03124699332133238</v>
+        <v>0.03079769606369328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1150029335542278</v>
+        <v>0.1124570186204108</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05696321121117168</v>
+        <v>0.06150376963000364</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.809345651210476</v>
+        <v>0.807058149453632</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2513113681984644</v>
+        <v>0.2563482468768545</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5106078494784714</v>
+        <v>0.468795048932117</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3250314207056568</v>
+        <v>0.3100186272767116</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.224076037711733</v>
+        <v>0.2223536166802036</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3809471581273953</v>
+        <v>0.3832780639647693</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1920954357942274</v>
+        <v>0.1789288921646913</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5428760887252455</v>
+        <v>0.5617856163933493</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1877271583312024</v>
+        <v>0.1835529019538539</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3443624493069559</v>
+        <v>0.3605388307584292</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2099948517211257</v>
+        <v>0.2035311031095602</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.1476130348945033</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09419573982026339</v>
+        <v>0.09419573982026336</v>
       </c>
     </row>
     <row r="8">
@@ -841,13 +841,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.02862915358206778</v>
+        <v>0.02790801879359512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05283888839310592</v>
+        <v>0.05244575789223173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06971391120009815</v>
+        <v>0.05981569022622126</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01493204381320512</v>
+        <v>0.01453191399531271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05755576605816063</v>
+        <v>0.05723455025510265</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02627983033774937</v>
+        <v>0.02318617315683204</v>
       </c>
     </row>
     <row r="9">
@@ -879,33 +879,33 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.2429916646842851</v>
+        <v>0.2354534067268934</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4024514781514926</v>
+        <v>0.4112753506282685</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4954304595728988</v>
+        <v>0.4796716546410134</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5594035365348698</v>
+        <v>0.5739510128547962</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.3997415246255424</v>
+        <v>0.3991099223643171</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.3496977476184367</v>
+        <v>0.3562536249992033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1256388881965051</v>
+        <v>0.1194293075350948</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2975131782061157</v>
+        <v>0.3062647472070409</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2245004857427013</v>
+        <v>0.2129155469742894</v>
       </c>
     </row>
     <row r="10">
@@ -964,34 +964,34 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04397002037822747</v>
+        <v>0.04616150826887934</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1278959323527833</v>
+        <v>0.1423469986822527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04133468996694072</v>
+        <v>0.04159953577581666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1223303850487324</v>
+        <v>0.1296345749624481</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.02371406378684179</v>
+        <v>0.02146848460301511</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03951239205514718</v>
+        <v>0.03952189196360114</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07158860495748635</v>
+        <v>0.07273632249312041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0255395786586077</v>
+        <v>0.02504326779132302</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09446684828080099</v>
+        <v>0.09715362132775685</v>
       </c>
     </row>
     <row r="12">
@@ -1002,34 +1002,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3844979151746235</v>
+        <v>0.4053946359736773</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3579969602529801</v>
+        <v>0.347361889302724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4024631706624937</v>
+        <v>0.3702888752847194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4817489991637512</v>
+        <v>0.4810468573111015</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3237033002108383</v>
+        <v>0.3081903216642585</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3386445267988554</v>
+        <v>0.33181959078602</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2057920082077577</v>
+        <v>0.2081644141837582</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2519140745031231</v>
+        <v>0.2510337949682964</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3279565636800583</v>
+        <v>0.3058941610661563</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.1110551920081846</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2502729759956207</v>
+        <v>0.2502729759956205</v>
       </c>
     </row>
     <row r="14">
@@ -1088,36 +1088,36 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1076097284550024</v>
+        <v>0.1045679318903189</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05190815757371479</v>
+        <v>0.05059700059589265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1476862934846015</v>
+        <v>0.1633777120742228</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.02236257663505328</v>
+        <v>0.02307073245209428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06419758054011256</v>
+        <v>0.06913873954528341</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04852361214416216</v>
+        <v>0.05045331781299847</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1009199831686675</v>
+        <v>0.1027597933999184</v>
       </c>
     </row>
     <row r="15">
@@ -1128,36 +1128,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5267651945278229</v>
+        <v>0.4905246712190664</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2096039395520826</v>
+        <v>0.2141882583344408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3082378737835915</v>
+        <v>0.3045834217412875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6955973884562872</v>
+        <v>0.6978267869518735</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.2075915757083645</v>
+        <v>0.2003309175877672</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2279928413955442</v>
+        <v>0.1960097642384074</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3499368306142733</v>
+        <v>0.3833792712253772</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1168905982713259</v>
+        <v>0.1262572847654412</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1973425088179471</v>
+        <v>0.2106327298589597</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4834362297834627</v>
+        <v>0.4900256501044823</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1181,7 @@
         <v>0.2801335506564682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.134293222799317</v>
+        <v>0.1342932227993169</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1306248300040848</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1191155655775283</v>
+        <v>0.1272819334350769</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07793794435917728</v>
+        <v>0.08015714735077396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08888041541978045</v>
+        <v>0.08689778453985285</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1236,13 +1236,13 @@
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>0.06440267414077858</v>
+        <v>0.07834810816278254</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0321172899307106</v>
+        <v>0.03140169308685946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0624603255067097</v>
+        <v>0.07147167035927143</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1256,36 +1256,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7586511209369602</v>
+        <v>0.8704910078699872</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.566577470968013</v>
+        <v>0.5728648926836619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6407552040643879</v>
+        <v>0.5615136911626383</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.558352085408312</v>
+        <v>0.5423805400481598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5774554226970526</v>
+        <v>0.569793837115002</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.9098346891005507</v>
+        <v>0.7405843998381397</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>0.5368862308286698</v>
+        <v>0.5703079823365886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2727781768300017</v>
+        <v>0.2746840371421649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4742431939259922</v>
+        <v>0.5346905958528361</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5157709946339636</v>
+        <v>0.5327321707336765</v>
       </c>
     </row>
     <row r="19">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.01934394899662023</v>
+        <v>0.01934394899662024</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3586109534039604</v>
@@ -1344,38 +1344,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2643977757837945</v>
+        <v>0.3291897385574081</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.09263162197733871</v>
+        <v>0.0955042777429336</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03725599260630814</v>
+        <v>0.0359281156678277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1201692775607631</v>
+        <v>0.1160821044684561</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02794813615542359</v>
+        <v>0.02789423054382498</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1577383022995558</v>
+        <v>0.1598389673211955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08408051911807882</v>
+        <v>0.07441584494564361</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01552991368200216</v>
+        <v>0.01555856868279499</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0703470408690549</v>
+        <v>0.06538965366256595</v>
       </c>
     </row>
     <row r="21">
@@ -1386,38 +1386,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9103684533746044</v>
+        <v>0.9151598762784677</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3895092935787251</v>
+        <v>0.4131892452484544</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3245798659678541</v>
+        <v>0.3003439729179104</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4357423430643822</v>
+        <v>0.4206400649943942</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.403461054416076</v>
+        <v>0.4059871988725823</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2887510339469128</v>
+        <v>0.3002739545944783</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.1107498778655267</v>
+        <v>0.08382102106984857</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6082128562710085</v>
+        <v>0.6155061219059736</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2722444469028348</v>
+        <v>0.2661067385128095</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1465346338176266</v>
+        <v>0.152051376890934</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2383917024820482</v>
+        <v>0.2297057381268013</v>
       </c>
     </row>
     <row r="22">
@@ -1453,7 +1453,7 @@
         <v>0.03742655289549331</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09740122305411168</v>
+        <v>0.09740122305411171</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3251204327260858</v>
@@ -1476,40 +1476,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1999369029482428</v>
+        <v>0.1920898394128415</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3010465297488429</v>
+        <v>0.3030173786333313</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04054537608134481</v>
+        <v>0.04003200813057236</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05042064561014715</v>
+        <v>0.04557291740462473</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05312928766199086</v>
+        <v>0.05320907678616906</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01995702056884639</v>
+        <v>0.01943269497649393</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04394224458013479</v>
+        <v>0.04504493494970011</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1957884364027587</v>
+        <v>0.1839031207942592</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1889818583777357</v>
+        <v>0.1840928294666287</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03880609956262435</v>
+        <v>0.03851424688152388</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06212013462845802</v>
+        <v>0.06447465051273599</v>
       </c>
     </row>
     <row r="24">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5900020531325371</v>
+        <v>0.5921307898125568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5604226808128596</v>
+        <v>0.5376303118199189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3693646601316576</v>
+        <v>0.3338871306671048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2591809879214676</v>
+        <v>0.2506014279775439</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4765941197364965</v>
+        <v>0.4870155078484905</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1763468310939661</v>
+        <v>0.1807650402030598</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.203093765791664</v>
+        <v>0.1898335759013141</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1765645167067159</v>
+        <v>0.1758525761932935</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4949726551611984</v>
+        <v>0.4827652232632157</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3402621200146874</v>
+        <v>0.3471495855057006</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2210683007410118</v>
+        <v>0.2019973367738474</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1926753460974594</v>
+        <v>0.1803086190054211</v>
       </c>
     </row>
     <row r="25">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1222118299661975</v>
+        <v>0.1218298005277913</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1174236225597188</v>
+        <v>0.1233701713407805</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
@@ -1633,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02244078473829783</v>
+        <v>0.02268432470642002</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07837230914737089</v>
+        <v>0.079264638573445</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02445354726183377</v>
+        <v>0.02451533204577258</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01497101298691164</v>
+        <v>0.01545450815285054</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09916021776657276</v>
+        <v>0.0995976162327829</v>
       </c>
     </row>
     <row r="27">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4903440369026677</v>
+        <v>0.4535641127093249</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.286526414508865</v>
+        <v>0.2872407213581486</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1882242665589817</v>
+        <v>0.1969775194973246</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5008372350979395</v>
+        <v>0.5161120053503114</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1757219160585736</v>
+        <v>0.2438686356057589</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.381499217221122</v>
+        <v>0.3884762327882771</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2076990074352408</v>
+        <v>0.2049286212734983</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3365382353533733</v>
+        <v>0.3223867003730957</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2824699452383079</v>
+        <v>0.3040024470373825</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2507072675884955</v>
+        <v>0.2407797328931353</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1343395907223199</v>
+        <v>0.1324810593142543</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3311373627678373</v>
+        <v>0.3254161471688122</v>
       </c>
     </row>
     <row r="28">
@@ -1713,7 +1713,7 @@
         <v>0.1493770723618271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1011406918914414</v>
@@ -1748,40 +1748,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
     </row>
     <row r="30">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="31">
@@ -2100,38 +2100,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1897</v>
+        <v>1919</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>945</v>
+        <v>1047</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1139</v>
+        <v>1095</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>967</v>
+        <v>902</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2202</v>
+        <v>2794</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1769</v>
+        <v>1872</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5680</v>
+        <v>5555</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3274</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="7">
@@ -2142,38 +2142,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7522</v>
+        <v>7501</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9308</v>
+        <v>9494</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9807</v>
+        <v>9004</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8789</v>
+        <v>8383</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6190</v>
+        <v>6142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11500</v>
+        <v>11570</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5846</v>
+        <v>5446</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8893</v>
+        <v>9203</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12138</v>
+        <v>11869</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17009</v>
+        <v>17808</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12069</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="8">
@@ -2277,13 +2277,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1722</v>
+        <v>1478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1562</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11">
@@ -2315,33 +2315,33 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>7783</v>
+        <v>7541</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7388</v>
+        <v>7550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12239</v>
+        <v>11849</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5014</v>
+        <v>5145</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6347</v>
+        <v>6337</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>5880</v>
+        <v>5990</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7825</v>
+        <v>7439</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10185</v>
+        <v>10485</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13343</v>
+        <v>12654</v>
       </c>
     </row>
     <row r="12">
@@ -2444,34 +2444,34 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6760</v>
+        <v>7523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2729</v>
+        <v>2892</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>633</v>
+        <v>573</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6712</v>
+        <v>6820</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4630</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="15">
@@ -2482,34 +2482,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7009</v>
+        <v>7390</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18921</v>
+        <v>18359</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9350</v>
+        <v>8602</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10748</v>
+        <v>10733</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>8644</v>
+        <v>8230</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7597</v>
+        <v>7444</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19296</v>
+        <v>19518</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9349</v>
+        <v>9316</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16075</v>
+        <v>14993</v>
       </c>
     </row>
     <row r="16">
@@ -2612,36 +2612,36 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1917</v>
+        <v>1863</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1993</v>
+        <v>1943</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4149</v>
+        <v>4590</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1773</v>
+        <v>1909</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3628</v>
+        <v>3772</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>4793</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="19">
@@ -2652,36 +2652,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9386</v>
+        <v>8740</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6658</v>
+        <v>6804</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11834</v>
+        <v>11694</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19544</v>
+        <v>19606</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7550</v>
+        <v>7286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4423</v>
+        <v>3802</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9662</v>
+        <v>10585</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5751</v>
+        <v>6212</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14754</v>
+        <v>15748</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>22960</v>
+        <v>23273</v>
       </c>
     </row>
     <row r="20">
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>872</v>
+        <v>932</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
       </c>
       <c r="J22" s="6" t="inlineStr"/>
       <c r="K22" s="6" t="n">
-        <v>974</v>
+        <v>1185</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>915</v>
+        <v>1048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2824,36 +2824,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5553</v>
+        <v>6371</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7463</v>
+        <v>7546</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6487</v>
+        <v>5685</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4183</v>
+        <v>4063</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4508</v>
+        <v>4448</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>4124</v>
+        <v>3357</v>
       </c>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="n">
-        <v>8120</v>
+        <v>8626</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8994</v>
+        <v>9057</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6951</v>
+        <v>7837</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4134</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="24">
@@ -2956,38 +2956,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2351</v>
+        <v>2927</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2811</v>
+        <v>2899</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3127</v>
+        <v>3020</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3075</v>
+        <v>3116</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>5530</v>
+        <v>4894</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3809</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="27">
@@ -2998,38 +2998,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8096</v>
+        <v>8139</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11822</v>
+        <v>12541</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8899</v>
+        <v>8235</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11337</v>
+        <v>10944</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4277</v>
+        <v>4304</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10226</v>
+        <v>10634</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>3115</v>
+        <v>2358</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11857</v>
+        <v>11999</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>17904</v>
+        <v>17501</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>9360</v>
+        <v>9713</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>12908</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="28">
@@ -3132,40 +3132,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5455</v>
+        <v>5241</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>19794</v>
+        <v>19924</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2814</v>
+        <v>2543</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1171</v>
+        <v>1140</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2568</v>
+        <v>2632</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8948</v>
+        <v>8404</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>23510</v>
+        <v>22902</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2089</v>
+        <v>2074</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>7096</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="31">
@@ -3176,40 +3176,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16098</v>
+        <v>16156</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36848</v>
+        <v>35350</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9765</v>
+        <v>8827</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>14463</v>
+        <v>13984</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8776</v>
+        <v>8968</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>10343</v>
+        <v>10602</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>5566</v>
+        <v>5203</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10317</v>
+        <v>10276</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>22620</v>
+        <v>22062</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>42330</v>
+        <v>43186</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>11903</v>
+        <v>10876</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>22010</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="32">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3225</v>
+        <v>3215</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3341</v>
+        <v>3510</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -3333,19 +3333,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4179</v>
+        <v>4227</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6175</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="35">
@@ -3356,40 +3356,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>12940</v>
+        <v>11969</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>6880</v>
+        <v>6898</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6514</v>
+        <v>6817</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>14249</v>
+        <v>14683</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>4733</v>
+        <v>6568</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>9657</v>
+        <v>9833</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5553</v>
+        <v>5479</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>11383</v>
+        <v>10904</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>15062</v>
+        <v>16210</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>12366</v>
+        <v>11877</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>8241</v>
+        <v>8127</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>20621</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="36">
@@ -3492,40 +3492,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
     </row>
     <row r="39">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
     </row>
     <row r="40">
